--- a/artfynd/A 55242-2022.xlsx
+++ b/artfynd/A 55242-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104465929</v>
+        <v>104465930</v>
       </c>
       <c r="B2" t="n">
         <v>96312</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>621911.6978563579</v>
+        <v>622159.6970455016</v>
       </c>
       <c r="R2" t="n">
-        <v>6893105.95149857</v>
+        <v>6893335.760637349</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104465930</v>
+        <v>104465926</v>
       </c>
       <c r="B3" t="n">
         <v>96312</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>622159.6970455016</v>
+        <v>621918.5712523854</v>
       </c>
       <c r="R3" t="n">
-        <v>6893335.760637349</v>
+        <v>6893188.081094444</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -886,6 +886,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>i grävd grop</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,7 +917,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104465926</v>
+        <v>104465929</v>
       </c>
       <c r="B4" t="n">
         <v>96312</v>
@@ -947,7 +952,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -956,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>621918.5712523854</v>
+        <v>621911.6978563579</v>
       </c>
       <c r="R4" t="n">
-        <v>6893188.081094444</v>
+        <v>6893105.95149857</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1002,11 +1007,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>i grävd grop</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 55242-2022.xlsx
+++ b/artfynd/A 55242-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104465930</v>
+        <v>104465929</v>
       </c>
       <c r="B2" t="n">
         <v>96312</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>622159.6970455016</v>
+        <v>621911.6978563579</v>
       </c>
       <c r="R2" t="n">
-        <v>6893335.760637349</v>
+        <v>6893105.95149857</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104465926</v>
+        <v>104465930</v>
       </c>
       <c r="B3" t="n">
         <v>96312</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>621918.5712523854</v>
+        <v>622159.6970455016</v>
       </c>
       <c r="R3" t="n">
-        <v>6893188.081094444</v>
+        <v>6893335.760637349</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -886,11 +886,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>i grävd grop</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104465929</v>
+        <v>104465926</v>
       </c>
       <c r="B4" t="n">
         <v>96312</v>
@@ -952,7 +947,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -961,10 +956,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>621911.6978563579</v>
+        <v>621918.5712523854</v>
       </c>
       <c r="R4" t="n">
-        <v>6893105.95149857</v>
+        <v>6893188.081094444</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,6 +1002,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>i grävd grop</t>
         </is>
       </c>
       <c r="AD4" t="b">
